--- a/IT13510954-ISO27k Asset Register.xlsx
+++ b/IT13510954-ISO27k Asset Register.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" tabRatio="730" firstSheet="3" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" tabRatio="730" firstSheet="5" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Index" sheetId="13" r:id="rId1"/>
@@ -46,7 +46,6 @@
   <customWorkbookViews>
     <customWorkbookView name="MOHAN KAMAT - Personal View" guid="{D3358BA1-25B9-4657-A847-3AA89D3F2D0F}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1020" windowHeight="547" tabRatio="730" activeSheetId="1"/>
   </customWorkbookViews>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
@@ -2462,6 +2461,72 @@
         </r>
       </text>
     </comment>
+    <comment ref="D72" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+          </rPr>
+          <t>MOHAN KAMAT:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+          </rPr>
+          <t xml:space="preserve">
+Enter the confidentiality requiment from the person carrying the role.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D73" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+          </rPr>
+          <t>MOHAN KAMAT:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+          </rPr>
+          <t xml:space="preserve">
+Enter the integrity requirement of a person carying the role</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D74" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+          </rPr>
+          <t>MOHAN KAMAT:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+          </rPr>
+          <t xml:space="preserve">
+Enter the availability requirement of a person carryingthe role</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
@@ -2560,12 +2625,78 @@
         </r>
       </text>
     </comment>
+    <comment ref="D64" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+          </rPr>
+          <t>MOHAN KAMAT:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+          </rPr>
+          <t xml:space="preserve">
+Enter the confidentiality requiment from the person carrying the role.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D65" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+          </rPr>
+          <t>MOHAN KAMAT:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+          </rPr>
+          <t xml:space="preserve">
+Enter the integrity requirement of a person carying the role</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D66" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+          </rPr>
+          <t>MOHAN KAMAT:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+          </rPr>
+          <t xml:space="preserve">
+Enter the availability requirement of a person carryingthe role</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="605" uniqueCount="216">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="882" uniqueCount="291">
   <si>
     <t>Asset Title</t>
   </si>
@@ -3223,13 +3354,238 @@
   </si>
   <si>
     <t>Functionallity</t>
+  </si>
+  <si>
+    <t>Database Server</t>
+  </si>
+  <si>
+    <t>SAN00123</t>
+  </si>
+  <si>
+    <t>198.168.1.1</t>
+  </si>
+  <si>
+    <t>Com</t>
+  </si>
+  <si>
+    <t>Linux</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t>HP</t>
+  </si>
+  <si>
+    <t>Operating</t>
+  </si>
+  <si>
+    <t>320GB</t>
+  </si>
+  <si>
+    <t>320TB</t>
+  </si>
+  <si>
+    <t>Cisco</t>
+  </si>
+  <si>
+    <t>Hewlett-Packard Asterope3</t>
+  </si>
+  <si>
+    <t>Router</t>
+  </si>
+  <si>
+    <t>device</t>
+  </si>
+  <si>
+    <t>ND001</t>
+  </si>
+  <si>
+    <t>prolink1001</t>
+  </si>
+  <si>
+    <t>172.143.2.4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Internet/Network </t>
+  </si>
+  <si>
+    <t>Prolink</t>
+  </si>
+  <si>
+    <t>4GB</t>
+  </si>
+  <si>
+    <t>Network device</t>
+  </si>
+  <si>
+    <t>LAN,WAN</t>
+  </si>
+  <si>
+    <t>Public router</t>
+  </si>
+  <si>
+    <t>Staff and Customers</t>
+  </si>
+  <si>
+    <t>ND002</t>
+  </si>
+  <si>
+    <t>prolink1002</t>
+  </si>
+  <si>
+    <t>172.143.2.5</t>
+  </si>
+  <si>
+    <t>DELL</t>
+  </si>
+  <si>
+    <t>FAQ/Reception</t>
+  </si>
+  <si>
+    <t>D001</t>
+  </si>
+  <si>
+    <t>xxxx1</t>
+  </si>
+  <si>
+    <t>198.125.7.8</t>
+  </si>
+  <si>
+    <t>Dell Sri Lanka</t>
+  </si>
+  <si>
+    <t>DELL inspiron</t>
+  </si>
+  <si>
+    <t>i7</t>
+  </si>
+  <si>
+    <t>8GB</t>
+  </si>
+  <si>
+    <t>Counter</t>
+  </si>
+  <si>
+    <t>D002</t>
+  </si>
+  <si>
+    <t>xxxx2</t>
+  </si>
+  <si>
+    <t>198.125.7.9</t>
+  </si>
+  <si>
+    <t>Toshiba</t>
+  </si>
+  <si>
+    <t>Toshiba Sri Lanka</t>
+  </si>
+  <si>
+    <t>Toshiba Wave</t>
+  </si>
+  <si>
+    <t>Server room</t>
+  </si>
+  <si>
+    <t>L001</t>
+  </si>
+  <si>
+    <t>quvbnq1.0</t>
+  </si>
+  <si>
+    <t>198.145.7.3</t>
+  </si>
+  <si>
+    <t>DELL Sri Lanka</t>
+  </si>
+  <si>
+    <t>3years</t>
+  </si>
+  <si>
+    <t>DELL 7447</t>
+  </si>
+  <si>
+    <t>intel i7</t>
+  </si>
+  <si>
+    <t>16GB</t>
+  </si>
+  <si>
+    <t>2TB</t>
+  </si>
+  <si>
+    <t>Sound System</t>
+  </si>
+  <si>
+    <t>Admin</t>
+  </si>
+  <si>
+    <t>Communication</t>
+  </si>
+  <si>
+    <t>M001</t>
+  </si>
+  <si>
+    <t>mmmeadia1.0</t>
+  </si>
+  <si>
+    <t>Sony</t>
+  </si>
+  <si>
+    <t>80GB</t>
+  </si>
+  <si>
+    <t>Surveillance System</t>
+  </si>
+  <si>
+    <t>Security</t>
+  </si>
+  <si>
+    <t>Guard Room</t>
+  </si>
+  <si>
+    <t>SU001</t>
+  </si>
+  <si>
+    <t>ssgr001</t>
+  </si>
+  <si>
+    <t>Toshiba SS</t>
+  </si>
+  <si>
+    <t>100GB</t>
+  </si>
+  <si>
+    <t>Private</t>
+  </si>
+  <si>
+    <t>Water Purification System</t>
+  </si>
+  <si>
+    <t>NDA001</t>
+  </si>
+  <si>
+    <t>6months</t>
+  </si>
+  <si>
+    <t>Drainage</t>
+  </si>
+  <si>
+    <t>Accounting</t>
+  </si>
+  <si>
+    <t>HR</t>
+  </si>
+  <si>
+    <t>Fluency in Accounting</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="24" x14ac:knownFonts="1">
+  <fonts count="27" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -3369,6 +3725,23 @@
       <b/>
       <sz val="9"/>
       <name val="Verdana"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Tahoma"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -3917,7 +4290,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="147">
+  <cellXfs count="151">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
@@ -4173,15 +4546,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="21" fillId="5" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -4199,6 +4563,15 @@
     </xf>
     <xf numFmtId="0" fontId="19" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -4295,12 +4668,66 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="45">
+  <dxfs count="51">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="15"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="13"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="10"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="15"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="13"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="10"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -6153,13 +6580,13 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E37"/>
+  <dimension ref="A1:E67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="7" topLeftCell="B8" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="7" topLeftCell="B50" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
-      <selection pane="bottomRight" activeCell="B8" sqref="B8:B36"/>
+      <selection pane="bottomRight" activeCell="B38" sqref="B38:B66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -6236,15 +6663,21 @@
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="139"/>
-      <c r="B8" s="139"/>
+      <c r="A8" s="139">
+        <v>1</v>
+      </c>
+      <c r="B8" s="149" t="s">
+        <v>243</v>
+      </c>
       <c r="C8" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="D8" s="28"/>
+      <c r="D8" s="150" t="s">
+        <v>165</v>
+      </c>
       <c r="E8" s="112">
         <f>COUNTIF($E34:$E36,"H")*3+COUNTIF($E34:$E36,"M")*2+COUNTIF($E34:$E36,"L")*1</f>
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
@@ -6262,7 +6695,9 @@
       <c r="C10" s="21" t="s">
         <v>97</v>
       </c>
-      <c r="D10" s="28"/>
+      <c r="D10" s="150" t="s">
+        <v>244</v>
+      </c>
       <c r="E10" s="145"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
@@ -6280,7 +6715,9 @@
       <c r="C12" s="36" t="s">
         <v>109</v>
       </c>
-      <c r="D12" s="28"/>
+      <c r="D12" s="150" t="s">
+        <v>167</v>
+      </c>
       <c r="E12" s="145"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
@@ -6289,7 +6726,9 @@
       <c r="C13" s="36" t="s">
         <v>12</v>
       </c>
-      <c r="D13" s="28"/>
+      <c r="D13" s="150" t="s">
+        <v>245</v>
+      </c>
       <c r="E13" s="145"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
@@ -6298,7 +6737,9 @@
       <c r="C14" s="36" t="s">
         <v>112</v>
       </c>
-      <c r="D14" s="28"/>
+      <c r="D14" s="150" t="s">
+        <v>246</v>
+      </c>
       <c r="E14" s="145"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
@@ -6307,7 +6748,9 @@
       <c r="C15" s="36" t="s">
         <v>31</v>
       </c>
-      <c r="D15" s="28"/>
+      <c r="D15" s="150" t="s">
+        <v>247</v>
+      </c>
       <c r="E15" s="145"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
@@ -6316,7 +6759,9 @@
       <c r="C16" s="36" t="s">
         <v>99</v>
       </c>
-      <c r="D16" s="28"/>
+      <c r="D16" s="28" t="s">
+        <v>106</v>
+      </c>
       <c r="E16" s="145"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
@@ -6325,7 +6770,9 @@
       <c r="C17" s="36" t="s">
         <v>100</v>
       </c>
-      <c r="D17" s="28"/>
+      <c r="D17" s="150" t="s">
+        <v>106</v>
+      </c>
       <c r="E17" s="145"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
@@ -6334,7 +6781,9 @@
       <c r="C18" s="36" t="s">
         <v>108</v>
       </c>
-      <c r="D18" s="28"/>
+      <c r="D18" s="150" t="s">
+        <v>106</v>
+      </c>
       <c r="E18" s="145"/>
     </row>
     <row r="19" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
@@ -6343,7 +6792,9 @@
       <c r="C19" s="23" t="s">
         <v>115</v>
       </c>
-      <c r="D19" s="28"/>
+      <c r="D19" s="150" t="s">
+        <v>193</v>
+      </c>
       <c r="E19" s="145"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
@@ -6352,7 +6803,9 @@
       <c r="C20" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="D20" s="28"/>
+      <c r="D20" s="150" t="s">
+        <v>248</v>
+      </c>
       <c r="E20" s="145"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
@@ -6361,7 +6814,9 @@
       <c r="C21" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="D21" s="28"/>
+      <c r="D21" s="150" t="s">
+        <v>177</v>
+      </c>
       <c r="E21" s="145"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
@@ -6370,7 +6825,9 @@
       <c r="C22" s="22" t="s">
         <v>41</v>
       </c>
-      <c r="D22" s="28"/>
+      <c r="D22" s="150" t="s">
+        <v>177</v>
+      </c>
       <c r="E22" s="145"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
@@ -6379,7 +6836,9 @@
       <c r="C23" s="22" t="s">
         <v>42</v>
       </c>
-      <c r="D23" s="28"/>
+      <c r="D23" s="150" t="s">
+        <v>223</v>
+      </c>
       <c r="E23" s="145"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
@@ -6388,7 +6847,9 @@
       <c r="C24" s="23" t="s">
         <v>124</v>
       </c>
-      <c r="D24" s="28"/>
+      <c r="D24" s="150" t="s">
+        <v>106</v>
+      </c>
       <c r="E24" s="145"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
@@ -6397,7 +6858,9 @@
       <c r="C25" s="36" t="s">
         <v>35</v>
       </c>
-      <c r="D25" s="28"/>
+      <c r="D25" s="150" t="s">
+        <v>249</v>
+      </c>
       <c r="E25" s="145"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
@@ -6406,7 +6869,9 @@
       <c r="C26" s="37" t="s">
         <v>36</v>
       </c>
-      <c r="D26" s="28"/>
+      <c r="D26" s="150" t="s">
+        <v>250</v>
+      </c>
       <c r="E26" s="145"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
@@ -6415,7 +6880,9 @@
       <c r="C27" s="36" t="s">
         <v>37</v>
       </c>
-      <c r="D27" s="28"/>
+      <c r="D27" s="150" t="s">
+        <v>251</v>
+      </c>
       <c r="E27" s="145"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
@@ -6424,7 +6891,9 @@
       <c r="C28" s="36" t="s">
         <v>38</v>
       </c>
-      <c r="D28" s="28"/>
+      <c r="D28" s="150" t="s">
+        <v>168</v>
+      </c>
       <c r="E28" s="145"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
@@ -6433,7 +6902,9 @@
       <c r="C29" s="36" t="s">
         <v>111</v>
       </c>
-      <c r="D29" s="28"/>
+      <c r="D29" s="28" t="s">
+        <v>102</v>
+      </c>
       <c r="E29" s="145"/>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
@@ -6442,7 +6913,9 @@
       <c r="C30" s="36" t="s">
         <v>101</v>
       </c>
-      <c r="D30" s="28"/>
+      <c r="D30" s="28" t="s">
+        <v>102</v>
+      </c>
       <c r="E30" s="145"/>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
@@ -6451,7 +6924,9 @@
       <c r="C31" s="38" t="s">
         <v>57</v>
       </c>
-      <c r="D31" s="28"/>
+      <c r="D31" s="150" t="s">
+        <v>188</v>
+      </c>
       <c r="E31" s="145"/>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.2">
@@ -6460,7 +6935,9 @@
       <c r="C32" s="22" t="s">
         <v>58</v>
       </c>
-      <c r="D32" s="28"/>
+      <c r="D32" s="150" t="s">
+        <v>188</v>
+      </c>
       <c r="E32" s="145"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
@@ -6469,7 +6946,9 @@
       <c r="C33" s="22" t="s">
         <v>39</v>
       </c>
-      <c r="D33" s="28"/>
+      <c r="D33" s="150" t="s">
+        <v>106</v>
+      </c>
       <c r="E33" s="146"/>
     </row>
     <row r="34" spans="1:5" ht="23.25" x14ac:dyDescent="0.2">
@@ -6478,10 +6957,10 @@
       <c r="C34" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="D34" s="27"/>
-      <c r="E34" s="5" t="s">
-        <v>8</v>
-      </c>
+      <c r="D34" s="27" t="s">
+        <v>64</v>
+      </c>
+      <c r="E34" s="5"/>
     </row>
     <row r="35" spans="1:5" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A35" s="144"/>
@@ -6489,10 +6968,10 @@
       <c r="C35" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="D35" s="27"/>
-      <c r="E35" s="5" t="s">
-        <v>8</v>
-      </c>
+      <c r="D35" s="27" t="s">
+        <v>63</v>
+      </c>
+      <c r="E35" s="5"/>
     </row>
     <row r="36" spans="1:5" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A36" s="144"/>
@@ -6500,7 +6979,9 @@
       <c r="C36" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="D36" s="27"/>
+      <c r="D36" s="27" t="s">
+        <v>62</v>
+      </c>
       <c r="E36" s="5" t="s">
         <v>8</v>
       </c>
@@ -6512,8 +6993,341 @@
       <c r="D37" s="116"/>
       <c r="E37" s="116"/>
     </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A38" s="139">
+        <v>2</v>
+      </c>
+      <c r="B38" s="149" t="s">
+        <v>256</v>
+      </c>
+      <c r="C38" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="D38" s="150" t="s">
+        <v>165</v>
+      </c>
+      <c r="E38" s="112">
+        <f>COUNTIF($E64:$E66,"H")*3+COUNTIF($E64:$E66,"M")*2+COUNTIF($E64:$E66,"L")*1</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A39" s="144"/>
+      <c r="B39" s="144"/>
+      <c r="C39" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="D39" s="28"/>
+      <c r="E39" s="145"/>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A40" s="144"/>
+      <c r="B40" s="144"/>
+      <c r="C40" s="21" t="s">
+        <v>97</v>
+      </c>
+      <c r="D40" s="150" t="s">
+        <v>252</v>
+      </c>
+      <c r="E40" s="145"/>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A41" s="144"/>
+      <c r="B41" s="144"/>
+      <c r="C41" s="21" t="s">
+        <v>98</v>
+      </c>
+      <c r="D41" s="28"/>
+      <c r="E41" s="145"/>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A42" s="144"/>
+      <c r="B42" s="144"/>
+      <c r="C42" s="36" t="s">
+        <v>109</v>
+      </c>
+      <c r="D42" s="150" t="s">
+        <v>167</v>
+      </c>
+      <c r="E42" s="145"/>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A43" s="144"/>
+      <c r="B43" s="144"/>
+      <c r="C43" s="36" t="s">
+        <v>12</v>
+      </c>
+      <c r="D43" s="150" t="s">
+        <v>253</v>
+      </c>
+      <c r="E43" s="145"/>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A44" s="144"/>
+      <c r="B44" s="144"/>
+      <c r="C44" s="36" t="s">
+        <v>112</v>
+      </c>
+      <c r="D44" s="150" t="s">
+        <v>254</v>
+      </c>
+      <c r="E44" s="145"/>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A45" s="144"/>
+      <c r="B45" s="144"/>
+      <c r="C45" s="36" t="s">
+        <v>31</v>
+      </c>
+      <c r="D45" s="150" t="s">
+        <v>255</v>
+      </c>
+      <c r="E45" s="145"/>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A46" s="144"/>
+      <c r="B46" s="144"/>
+      <c r="C46" s="36" t="s">
+        <v>99</v>
+      </c>
+      <c r="D46" s="28" t="s">
+        <v>106</v>
+      </c>
+      <c r="E46" s="145"/>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A47" s="144"/>
+      <c r="B47" s="144"/>
+      <c r="C47" s="36" t="s">
+        <v>100</v>
+      </c>
+      <c r="D47" s="150" t="s">
+        <v>106</v>
+      </c>
+      <c r="E47" s="145"/>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A48" s="144"/>
+      <c r="B48" s="144"/>
+      <c r="C48" s="36" t="s">
+        <v>108</v>
+      </c>
+      <c r="D48" s="150" t="s">
+        <v>106</v>
+      </c>
+      <c r="E48" s="145"/>
+    </row>
+    <row r="49" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A49" s="144"/>
+      <c r="B49" s="144"/>
+      <c r="C49" s="23" t="s">
+        <v>115</v>
+      </c>
+      <c r="D49" s="150" t="s">
+        <v>193</v>
+      </c>
+      <c r="E49" s="145"/>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A50" s="144"/>
+      <c r="B50" s="144"/>
+      <c r="C50" s="22" t="s">
+        <v>34</v>
+      </c>
+      <c r="D50" s="150" t="s">
+        <v>257</v>
+      </c>
+      <c r="E50" s="145"/>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A51" s="144"/>
+      <c r="B51" s="144"/>
+      <c r="C51" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="D51" s="150" t="s">
+        <v>177</v>
+      </c>
+      <c r="E51" s="145"/>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A52" s="144"/>
+      <c r="B52" s="144"/>
+      <c r="C52" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="D52" s="150" t="s">
+        <v>177</v>
+      </c>
+      <c r="E52" s="145"/>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A53" s="144"/>
+      <c r="B53" s="144"/>
+      <c r="C53" s="22" t="s">
+        <v>42</v>
+      </c>
+      <c r="D53" s="150" t="s">
+        <v>223</v>
+      </c>
+      <c r="E53" s="145"/>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A54" s="144"/>
+      <c r="B54" s="144"/>
+      <c r="C54" s="23" t="s">
+        <v>124</v>
+      </c>
+      <c r="D54" s="150" t="s">
+        <v>106</v>
+      </c>
+      <c r="E54" s="145"/>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A55" s="144"/>
+      <c r="B55" s="144"/>
+      <c r="C55" s="36" t="s">
+        <v>35</v>
+      </c>
+      <c r="D55" s="150" t="s">
+        <v>258</v>
+      </c>
+      <c r="E55" s="145"/>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A56" s="144"/>
+      <c r="B56" s="144"/>
+      <c r="C56" s="37" t="s">
+        <v>36</v>
+      </c>
+      <c r="D56" s="150" t="s">
+        <v>250</v>
+      </c>
+      <c r="E56" s="145"/>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A57" s="144"/>
+      <c r="B57" s="144"/>
+      <c r="C57" s="36" t="s">
+        <v>37</v>
+      </c>
+      <c r="D57" s="150" t="s">
+        <v>251</v>
+      </c>
+      <c r="E57" s="145"/>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A58" s="144"/>
+      <c r="B58" s="144"/>
+      <c r="C58" s="36" t="s">
+        <v>38</v>
+      </c>
+      <c r="D58" s="150" t="s">
+        <v>168</v>
+      </c>
+      <c r="E58" s="145"/>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A59" s="144"/>
+      <c r="B59" s="144"/>
+      <c r="C59" s="36" t="s">
+        <v>111</v>
+      </c>
+      <c r="D59" s="28" t="s">
+        <v>102</v>
+      </c>
+      <c r="E59" s="145"/>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A60" s="144"/>
+      <c r="B60" s="144"/>
+      <c r="C60" s="36" t="s">
+        <v>101</v>
+      </c>
+      <c r="D60" s="28" t="s">
+        <v>102</v>
+      </c>
+      <c r="E60" s="145"/>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A61" s="144"/>
+      <c r="B61" s="144"/>
+      <c r="C61" s="38" t="s">
+        <v>57</v>
+      </c>
+      <c r="D61" s="150" t="s">
+        <v>188</v>
+      </c>
+      <c r="E61" s="145"/>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A62" s="144"/>
+      <c r="B62" s="144"/>
+      <c r="C62" s="22" t="s">
+        <v>58</v>
+      </c>
+      <c r="D62" s="150" t="s">
+        <v>188</v>
+      </c>
+      <c r="E62" s="145"/>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A63" s="144"/>
+      <c r="B63" s="144"/>
+      <c r="C63" s="22" t="s">
+        <v>39</v>
+      </c>
+      <c r="D63" s="150" t="s">
+        <v>106</v>
+      </c>
+      <c r="E63" s="146"/>
+    </row>
+    <row r="64" spans="1:5" ht="23.25" x14ac:dyDescent="0.2">
+      <c r="A64" s="144"/>
+      <c r="B64" s="144"/>
+      <c r="C64" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="D64" s="27" t="s">
+        <v>64</v>
+      </c>
+      <c r="E64" s="5"/>
+    </row>
+    <row r="65" spans="1:5" ht="23.25" x14ac:dyDescent="0.2">
+      <c r="A65" s="144"/>
+      <c r="B65" s="144"/>
+      <c r="C65" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="D65" s="27" t="s">
+        <v>64</v>
+      </c>
+      <c r="E65" s="5"/>
+    </row>
+    <row r="66" spans="1:5" ht="23.25" x14ac:dyDescent="0.2">
+      <c r="A66" s="144"/>
+      <c r="B66" s="144"/>
+      <c r="C66" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="D66" s="27" t="s">
+        <v>64</v>
+      </c>
+      <c r="E66" s="5"/>
+    </row>
+    <row r="67" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="115"/>
+      <c r="B67" s="116"/>
+      <c r="C67" s="116"/>
+      <c r="D67" s="116"/>
+      <c r="E67" s="116"/>
+    </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="12">
+    <mergeCell ref="A38:A66"/>
+    <mergeCell ref="B38:B66"/>
+    <mergeCell ref="E38:E63"/>
+    <mergeCell ref="A67:E67"/>
     <mergeCell ref="A37:E37"/>
     <mergeCell ref="A1:E4"/>
     <mergeCell ref="A5:E5"/>
@@ -6525,24 +7339,35 @@
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="E34:E36">
-    <cfRule type="cellIs" dxfId="11" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="4" stopIfTrue="1" operator="equal">
       <formula>"H"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="2" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="5" stopIfTrue="1" operator="equal">
       <formula>"M"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="3" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="6" stopIfTrue="1" operator="equal">
+      <formula>"L"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E64:E66">
+    <cfRule type="cellIs" dxfId="2" priority="1" stopIfTrue="1" operator="equal">
+      <formula>"H"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="2" stopIfTrue="1" operator="equal">
+      <formula>"M"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="3" stopIfTrue="1" operator="equal">
       <formula>"L"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E34:E36">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E34:E36 E64:E66">
       <formula1>lmh</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D16">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D16 D46">
       <formula1>Yesno</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D29:D30">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D29:D30 D59:D60">
       <formula1>Backup</formula1>
     </dataValidation>
   </dataValidations>
@@ -6565,8 +7390,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E39"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8:B38"/>
+    <sheetView topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="D38" sqref="D38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -6623,9 +7448,9 @@
         <v>147</v>
       </c>
       <c r="B6" s="78"/>
-      <c r="C6" s="109"/>
-      <c r="D6" s="109"/>
-      <c r="E6" s="110"/>
+      <c r="C6" s="106"/>
+      <c r="D6" s="106"/>
+      <c r="E6" s="107"/>
     </row>
     <row r="7" spans="1:5" ht="32.25" x14ac:dyDescent="0.2">
       <c r="A7" s="19" t="s">
@@ -6643,15 +7468,21 @@
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="139"/>
-      <c r="B8" s="139"/>
+      <c r="A8" s="139">
+        <v>1</v>
+      </c>
+      <c r="B8" s="149" t="s">
+        <v>243</v>
+      </c>
       <c r="C8" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="D8" s="45"/>
+      <c r="D8" s="45" t="s">
+        <v>165</v>
+      </c>
       <c r="E8" s="112">
         <f>COUNTIF($E36:$E38,"H")*3+COUNTIF($E36:$E38,"M")*2+COUNTIF($E36:$E38,"L")*1</f>
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
@@ -6669,7 +7500,9 @@
       <c r="C10" s="21" t="s">
         <v>97</v>
       </c>
-      <c r="D10" s="45"/>
+      <c r="D10" s="45" t="s">
+        <v>186</v>
+      </c>
       <c r="E10" s="113"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
@@ -6678,7 +7511,9 @@
       <c r="C11" s="21" t="s">
         <v>98</v>
       </c>
-      <c r="D11" s="45"/>
+      <c r="D11" s="45" t="s">
+        <v>186</v>
+      </c>
       <c r="E11" s="113"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
@@ -6687,7 +7522,9 @@
       <c r="C12" s="36" t="s">
         <v>109</v>
       </c>
-      <c r="D12" s="45"/>
+      <c r="D12" s="45" t="s">
+        <v>259</v>
+      </c>
       <c r="E12" s="113"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
@@ -6696,7 +7533,9 @@
       <c r="C13" s="36" t="s">
         <v>12</v>
       </c>
-      <c r="D13" s="45"/>
+      <c r="D13" s="45" t="s">
+        <v>260</v>
+      </c>
       <c r="E13" s="113"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
@@ -6705,7 +7544,9 @@
       <c r="C14" s="36" t="s">
         <v>112</v>
       </c>
-      <c r="D14" s="45"/>
+      <c r="D14" s="45" t="s">
+        <v>261</v>
+      </c>
       <c r="E14" s="113"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
@@ -6714,7 +7555,9 @@
       <c r="C15" s="36" t="s">
         <v>31</v>
       </c>
-      <c r="D15" s="45"/>
+      <c r="D15" s="45" t="s">
+        <v>262</v>
+      </c>
       <c r="E15" s="113"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
@@ -6723,7 +7566,9 @@
       <c r="C16" s="36" t="s">
         <v>99</v>
       </c>
-      <c r="D16" s="45"/>
+      <c r="D16" s="45" t="s">
+        <v>106</v>
+      </c>
       <c r="E16" s="113"/>
     </row>
     <row r="17" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
@@ -6732,7 +7577,9 @@
       <c r="C17" s="37" t="s">
         <v>115</v>
       </c>
-      <c r="D17" s="45"/>
+      <c r="D17" s="45" t="s">
+        <v>106</v>
+      </c>
       <c r="E17" s="113"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
@@ -6741,7 +7588,9 @@
       <c r="C18" s="36" t="s">
         <v>100</v>
       </c>
-      <c r="D18" s="45"/>
+      <c r="D18" s="45" t="s">
+        <v>106</v>
+      </c>
       <c r="E18" s="113"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
@@ -6750,7 +7599,9 @@
       <c r="C19" s="36" t="s">
         <v>108</v>
       </c>
-      <c r="D19" s="45"/>
+      <c r="D19" s="45" t="s">
+        <v>106</v>
+      </c>
       <c r="E19" s="113"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
@@ -6759,7 +7610,9 @@
       <c r="C20" s="36" t="s">
         <v>34</v>
       </c>
-      <c r="D20" s="45"/>
+      <c r="D20" s="45" t="s">
+        <v>263</v>
+      </c>
       <c r="E20" s="113"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
@@ -6768,7 +7621,9 @@
       <c r="C21" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="D21" s="45"/>
+      <c r="D21" s="45" t="s">
+        <v>264</v>
+      </c>
       <c r="E21" s="113"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
@@ -6777,7 +7632,9 @@
       <c r="C22" s="36" t="s">
         <v>41</v>
       </c>
-      <c r="D22" s="45"/>
+      <c r="D22" s="45" t="s">
+        <v>264</v>
+      </c>
       <c r="E22" s="113"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
@@ -6786,7 +7643,9 @@
       <c r="C23" s="36" t="s">
         <v>42</v>
       </c>
-      <c r="D23" s="45"/>
+      <c r="D23" s="45" t="s">
+        <v>223</v>
+      </c>
       <c r="E23" s="113"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
@@ -6795,7 +7654,9 @@
       <c r="C24" s="36" t="s">
         <v>124</v>
       </c>
-      <c r="D24" s="45"/>
+      <c r="D24" s="45" t="s">
+        <v>106</v>
+      </c>
       <c r="E24" s="113"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
@@ -6804,7 +7665,9 @@
       <c r="C25" s="36" t="s">
         <v>35</v>
       </c>
-      <c r="D25" s="45"/>
+      <c r="D25" s="45" t="s">
+        <v>265</v>
+      </c>
       <c r="E25" s="113"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
@@ -6813,7 +7676,9 @@
       <c r="C26" s="37" t="s">
         <v>36</v>
       </c>
-      <c r="D26" s="45"/>
+      <c r="D26" s="45" t="s">
+        <v>266</v>
+      </c>
       <c r="E26" s="113"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
@@ -6822,7 +7687,9 @@
       <c r="C27" s="36" t="s">
         <v>37</v>
       </c>
-      <c r="D27" s="45"/>
+      <c r="D27" s="45" t="s">
+        <v>267</v>
+      </c>
       <c r="E27" s="113"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
@@ -6831,7 +7698,9 @@
       <c r="C28" s="36" t="s">
         <v>38</v>
       </c>
-      <c r="D28" s="45"/>
+      <c r="D28" s="45" t="s">
+        <v>268</v>
+      </c>
       <c r="E28" s="113"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
@@ -6840,7 +7709,9 @@
       <c r="C29" s="36" t="s">
         <v>110</v>
       </c>
-      <c r="D29" s="45"/>
+      <c r="D29" s="45" t="s">
+        <v>107</v>
+      </c>
       <c r="E29" s="113"/>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
@@ -6849,7 +7720,9 @@
       <c r="C30" s="36" t="s">
         <v>111</v>
       </c>
-      <c r="D30" s="45"/>
+      <c r="D30" s="45" t="s">
+        <v>106</v>
+      </c>
       <c r="E30" s="113"/>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
@@ -6858,7 +7731,9 @@
       <c r="C31" s="36" t="s">
         <v>146</v>
       </c>
-      <c r="D31" s="45"/>
+      <c r="D31" s="45" t="s">
+        <v>171</v>
+      </c>
       <c r="E31" s="113"/>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.2">
@@ -6867,7 +7742,9 @@
       <c r="C32" s="36" t="s">
         <v>101</v>
       </c>
-      <c r="D32" s="45"/>
+      <c r="D32" s="45" t="s">
+        <v>102</v>
+      </c>
       <c r="E32" s="113"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
@@ -6876,7 +7753,9 @@
       <c r="C33" s="38" t="s">
         <v>57</v>
       </c>
-      <c r="D33" s="45"/>
+      <c r="D33" s="45" t="s">
+        <v>188</v>
+      </c>
       <c r="E33" s="113"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
@@ -6885,7 +7764,9 @@
       <c r="C34" s="36" t="s">
         <v>58</v>
       </c>
-      <c r="D34" s="45"/>
+      <c r="D34" s="45" t="s">
+        <v>188</v>
+      </c>
       <c r="E34" s="113"/>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.2">
@@ -6894,7 +7775,9 @@
       <c r="C35" s="36" t="s">
         <v>39</v>
       </c>
-      <c r="D35" s="45"/>
+      <c r="D35" s="45" t="s">
+        <v>106</v>
+      </c>
       <c r="E35" s="114"/>
     </row>
     <row r="36" spans="1:5" ht="23.25" x14ac:dyDescent="0.2">
@@ -6903,10 +7786,10 @@
       <c r="C36" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="D36" s="27"/>
-      <c r="E36" s="5" t="s">
-        <v>8</v>
-      </c>
+      <c r="D36" s="27" t="s">
+        <v>64</v>
+      </c>
+      <c r="E36" s="5"/>
     </row>
     <row r="37" spans="1:5" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A37" s="140"/>
@@ -6914,10 +7797,10 @@
       <c r="C37" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="D37" s="27"/>
-      <c r="E37" s="5" t="s">
-        <v>8</v>
-      </c>
+      <c r="D37" s="27" t="s">
+        <v>64</v>
+      </c>
+      <c r="E37" s="5"/>
     </row>
     <row r="38" spans="1:5" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A38" s="140"/>
@@ -6925,10 +7808,10 @@
       <c r="C38" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="D38" s="27"/>
-      <c r="E38" s="5" t="s">
-        <v>8</v>
-      </c>
+      <c r="D38" s="27" t="s">
+        <v>64</v>
+      </c>
+      <c r="E38" s="5"/>
     </row>
     <row r="39" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A39" s="115"/>
@@ -6950,13 +7833,13 @@
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="E36:E38">
-    <cfRule type="cellIs" dxfId="8" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="1" stopIfTrue="1" operator="equal">
       <formula>"H"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="2" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="2" stopIfTrue="1" operator="equal">
       <formula>"M"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="3" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="3" stopIfTrue="1" operator="equal">
       <formula>"L"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6990,8 +7873,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8:B26"/>
+    <sheetView topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -7048,9 +7931,9 @@
         <v>147</v>
       </c>
       <c r="B6" s="78"/>
-      <c r="C6" s="109"/>
-      <c r="D6" s="109"/>
-      <c r="E6" s="110"/>
+      <c r="C6" s="106"/>
+      <c r="D6" s="106"/>
+      <c r="E6" s="107"/>
     </row>
     <row r="7" spans="1:5" ht="32.25" x14ac:dyDescent="0.2">
       <c r="A7" s="19" t="s">
@@ -7068,15 +7951,21 @@
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="139"/>
-      <c r="B8" s="139"/>
+      <c r="A8" s="139">
+        <v>1</v>
+      </c>
+      <c r="B8" s="149" t="s">
+        <v>269</v>
+      </c>
       <c r="C8" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="D8" s="45"/>
+      <c r="D8" s="45" t="s">
+        <v>165</v>
+      </c>
       <c r="E8" s="112">
         <f>COUNTIF($E24:$E26,"H")*3+COUNTIF($E24:$E26,"M")*2+COUNTIF($E24:$E26,"L")*1</f>
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
@@ -7094,7 +7983,9 @@
       <c r="C10" s="21" t="s">
         <v>97</v>
       </c>
-      <c r="D10" s="45"/>
+      <c r="D10" s="45" t="s">
+        <v>270</v>
+      </c>
       <c r="E10" s="113"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
@@ -7103,7 +7994,9 @@
       <c r="C11" s="21" t="s">
         <v>98</v>
       </c>
-      <c r="D11" s="45"/>
+      <c r="D11" s="45" t="s">
+        <v>271</v>
+      </c>
       <c r="E11" s="113"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
@@ -7112,7 +8005,9 @@
       <c r="C12" s="36" t="s">
         <v>109</v>
       </c>
-      <c r="D12" s="45"/>
+      <c r="D12" s="45" t="s">
+        <v>167</v>
+      </c>
       <c r="E12" s="113"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
@@ -7121,7 +8016,9 @@
       <c r="C13" s="36" t="s">
         <v>12</v>
       </c>
-      <c r="D13" s="45"/>
+      <c r="D13" s="45" t="s">
+        <v>272</v>
+      </c>
       <c r="E13" s="113"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
@@ -7130,7 +8027,9 @@
       <c r="C14" s="36" t="s">
         <v>112</v>
       </c>
-      <c r="D14" s="45"/>
+      <c r="D14" s="45" t="s">
+        <v>273</v>
+      </c>
       <c r="E14" s="113"/>
     </row>
     <row r="15" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
@@ -7139,7 +8038,9 @@
       <c r="C15" s="37" t="s">
         <v>115</v>
       </c>
-      <c r="D15" s="45"/>
+      <c r="D15" s="45" t="s">
+        <v>106</v>
+      </c>
       <c r="E15" s="113"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
@@ -7148,7 +8049,9 @@
       <c r="C16" s="36" t="s">
         <v>35</v>
       </c>
-      <c r="D16" s="45"/>
+      <c r="D16" s="45" t="s">
+        <v>274</v>
+      </c>
       <c r="E16" s="113"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
@@ -7157,7 +8060,9 @@
       <c r="C17" s="37" t="s">
         <v>119</v>
       </c>
-      <c r="D17" s="45"/>
+      <c r="D17" s="45" t="s">
+        <v>275</v>
+      </c>
       <c r="E17" s="113"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
@@ -7166,7 +8071,9 @@
       <c r="C18" s="36" t="s">
         <v>120</v>
       </c>
-      <c r="D18" s="45"/>
+      <c r="D18" s="45" t="s">
+        <v>107</v>
+      </c>
       <c r="E18" s="113"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
@@ -7175,7 +8082,9 @@
       <c r="C19" s="36" t="s">
         <v>101</v>
       </c>
-      <c r="D19" s="45"/>
+      <c r="D19" s="45" t="s">
+        <v>104</v>
+      </c>
       <c r="E19" s="113"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
@@ -7184,7 +8093,9 @@
       <c r="C20" s="36" t="s">
         <v>121</v>
       </c>
-      <c r="D20" s="45"/>
+      <c r="D20" s="45" t="s">
+        <v>104</v>
+      </c>
       <c r="E20" s="113"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
@@ -7193,7 +8104,9 @@
       <c r="C21" s="38" t="s">
         <v>57</v>
       </c>
-      <c r="D21" s="45"/>
+      <c r="D21" s="45" t="s">
+        <v>188</v>
+      </c>
       <c r="E21" s="113"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
@@ -7202,7 +8115,9 @@
       <c r="C22" s="36" t="s">
         <v>58</v>
       </c>
-      <c r="D22" s="45"/>
+      <c r="D22" s="45" t="s">
+        <v>188</v>
+      </c>
       <c r="E22" s="113"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
@@ -7211,7 +8126,9 @@
       <c r="C23" s="36" t="s">
         <v>39</v>
       </c>
-      <c r="D23" s="45"/>
+      <c r="D23" s="45" t="s">
+        <v>107</v>
+      </c>
       <c r="E23" s="114"/>
     </row>
     <row r="24" spans="1:5" ht="23.25" x14ac:dyDescent="0.2">
@@ -7220,7 +8137,9 @@
       <c r="C24" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="D24" s="27"/>
+      <c r="D24" s="27" t="s">
+        <v>62</v>
+      </c>
       <c r="E24" s="5" t="s">
         <v>8</v>
       </c>
@@ -7231,10 +8150,10 @@
       <c r="C25" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="D25" s="27"/>
-      <c r="E25" s="5" t="s">
-        <v>8</v>
-      </c>
+      <c r="D25" s="27" t="s">
+        <v>64</v>
+      </c>
+      <c r="E25" s="5"/>
     </row>
     <row r="26" spans="1:5" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A26" s="140"/>
@@ -7242,10 +8161,10 @@
       <c r="C26" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="D26" s="27"/>
-      <c r="E26" s="5" t="s">
-        <v>8</v>
-      </c>
+      <c r="D26" s="27" t="s">
+        <v>64</v>
+      </c>
+      <c r="E26" s="5"/>
     </row>
     <row r="27" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A27" s="115"/>
@@ -7267,13 +8186,13 @@
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="E24:E26">
-    <cfRule type="cellIs" dxfId="5" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="1" stopIfTrue="1" operator="equal">
       <formula>"H"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="2" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="2" stopIfTrue="1" operator="equal">
       <formula>"M"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="3" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="3" stopIfTrue="1" operator="equal">
       <formula>"L"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7305,7 +8224,7 @@
   <dimension ref="A1:E25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -7362,9 +8281,9 @@
         <v>147</v>
       </c>
       <c r="B6" s="78"/>
-      <c r="C6" s="109"/>
-      <c r="D6" s="109"/>
-      <c r="E6" s="110"/>
+      <c r="C6" s="106"/>
+      <c r="D6" s="106"/>
+      <c r="E6" s="107"/>
     </row>
     <row r="7" spans="1:5" ht="32.25" x14ac:dyDescent="0.2">
       <c r="A7" s="19" t="s">
@@ -7382,15 +8301,21 @@
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="139"/>
-      <c r="B8" s="139"/>
+      <c r="A8" s="139">
+        <v>1</v>
+      </c>
+      <c r="B8" s="149" t="s">
+        <v>276</v>
+      </c>
       <c r="C8" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="D8" s="45"/>
+      <c r="D8" s="45" t="s">
+        <v>165</v>
+      </c>
       <c r="E8" s="112">
         <f>COUNTIF($E21:$E23,"H")*3+COUNTIF($E21:$E23,"M")*2+COUNTIF($E21:$E23,"L")*1</f>
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
@@ -7408,7 +8333,9 @@
       <c r="C10" s="21" t="s">
         <v>97</v>
       </c>
-      <c r="D10" s="45"/>
+      <c r="D10" s="45" t="s">
+        <v>277</v>
+      </c>
       <c r="E10" s="113"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
@@ -7417,7 +8344,9 @@
       <c r="C11" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="D11" s="45"/>
+      <c r="D11" s="45" t="s">
+        <v>283</v>
+      </c>
       <c r="E11" s="113"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
@@ -7426,7 +8355,9 @@
       <c r="C12" s="36" t="s">
         <v>109</v>
       </c>
-      <c r="D12" s="45"/>
+      <c r="D12" s="45" t="s">
+        <v>278</v>
+      </c>
       <c r="E12" s="113"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
@@ -7435,7 +8366,9 @@
       <c r="C13" s="36" t="s">
         <v>12</v>
       </c>
-      <c r="D13" s="45"/>
+      <c r="D13" s="45" t="s">
+        <v>279</v>
+      </c>
       <c r="E13" s="113"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
@@ -7444,7 +8377,9 @@
       <c r="C14" s="36" t="s">
         <v>112</v>
       </c>
-      <c r="D14" s="45"/>
+      <c r="D14" s="45" t="s">
+        <v>280</v>
+      </c>
       <c r="E14" s="113"/>
     </row>
     <row r="15" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
@@ -7453,7 +8388,9 @@
       <c r="C15" s="37" t="s">
         <v>115</v>
       </c>
-      <c r="D15" s="45"/>
+      <c r="D15" s="45" t="s">
+        <v>106</v>
+      </c>
       <c r="E15" s="113"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
@@ -7462,7 +8399,9 @@
       <c r="C16" s="37" t="s">
         <v>125</v>
       </c>
-      <c r="D16" s="45"/>
+      <c r="D16" s="45" t="s">
+        <v>106</v>
+      </c>
       <c r="E16" s="113"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
@@ -7471,7 +8410,9 @@
       <c r="C17" s="37" t="s">
         <v>124</v>
       </c>
-      <c r="D17" s="45"/>
+      <c r="D17" s="45" t="s">
+        <v>106</v>
+      </c>
       <c r="E17" s="113"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
@@ -7480,7 +8421,9 @@
       <c r="C18" s="36" t="s">
         <v>35</v>
       </c>
-      <c r="D18" s="45"/>
+      <c r="D18" s="45" t="s">
+        <v>281</v>
+      </c>
       <c r="E18" s="113"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
@@ -7489,7 +8432,9 @@
       <c r="C19" s="37" t="s">
         <v>119</v>
       </c>
-      <c r="D19" s="45"/>
+      <c r="D19" s="45" t="s">
+        <v>282</v>
+      </c>
       <c r="E19" s="113"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
@@ -7498,7 +8443,9 @@
       <c r="C20" s="36" t="s">
         <v>58</v>
       </c>
-      <c r="D20" s="45"/>
+      <c r="D20" s="45" t="s">
+        <v>188</v>
+      </c>
       <c r="E20" s="113"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
@@ -7507,10 +8454,10 @@
       <c r="C21" s="14" t="s">
         <v>126</v>
       </c>
-      <c r="D21" s="27"/>
-      <c r="E21" s="5" t="s">
-        <v>8</v>
-      </c>
+      <c r="D21" s="27" t="s">
+        <v>64</v>
+      </c>
+      <c r="E21" s="5"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" s="140"/>
@@ -7518,10 +8465,10 @@
       <c r="C22" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="D22" s="27"/>
-      <c r="E22" s="5" t="s">
-        <v>8</v>
-      </c>
+      <c r="D22" s="27" t="s">
+        <v>64</v>
+      </c>
+      <c r="E22" s="5"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" s="140"/>
@@ -7529,10 +8476,10 @@
       <c r="C23" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="D23" s="27"/>
-      <c r="E23" s="5" t="s">
-        <v>8</v>
-      </c>
+      <c r="D23" s="27" t="s">
+        <v>64</v>
+      </c>
+      <c r="E23" s="5"/>
     </row>
     <row r="24" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A24" s="115"/>
@@ -7561,13 +8508,13 @@
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="E21:E23">
-    <cfRule type="cellIs" dxfId="2" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="1" stopIfTrue="1" operator="equal">
       <formula>"H"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="2" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="2" stopIfTrue="1" operator="equal">
       <formula>"M"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="3" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="3" stopIfTrue="1" operator="equal">
       <formula>"L"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7899,13 +8846,13 @@
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="E20:E22">
-    <cfRule type="cellIs" dxfId="44" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="50" priority="1" stopIfTrue="1" operator="equal">
       <formula>"H"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="43" priority="2" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="49" priority="2" stopIfTrue="1" operator="equal">
       <formula>"M"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="42" priority="3" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="48" priority="3" stopIfTrue="1" operator="equal">
       <formula>"L"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7987,23 +8934,23 @@
       <c r="E5" s="84"/>
     </row>
     <row r="6" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A6" s="106" t="str">
+      <c r="A6" s="103" t="str">
         <f>PROCESS</f>
         <v>Commercial Bank of Ceylon PLC |Sri Lanka</v>
       </c>
-      <c r="B6" s="107"/>
-      <c r="C6" s="107"/>
-      <c r="D6" s="107"/>
-      <c r="E6" s="108"/>
+      <c r="B6" s="104"/>
+      <c r="C6" s="104"/>
+      <c r="D6" s="104"/>
+      <c r="E6" s="105"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="77" t="s">
         <v>162</v>
       </c>
       <c r="B7" s="78"/>
-      <c r="C7" s="109"/>
-      <c r="D7" s="109"/>
-      <c r="E7" s="110"/>
+      <c r="C7" s="106"/>
+      <c r="D7" s="106"/>
+      <c r="E7" s="107"/>
     </row>
     <row r="8" spans="1:5" ht="32.25" x14ac:dyDescent="0.2">
       <c r="A8" s="7" t="s">
@@ -8015,7 +8962,7 @@
       <c r="C8" s="89" t="s">
         <v>129</v>
       </c>
-      <c r="D8" s="111"/>
+      <c r="D8" s="108"/>
       <c r="E8" s="9" t="s">
         <v>11</v>
       </c>
@@ -8056,7 +9003,7 @@
         <v>4</v>
       </c>
       <c r="D11" s="26"/>
-      <c r="E11" s="103"/>
+      <c r="E11" s="109"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="98"/>
@@ -8067,7 +9014,7 @@
       <c r="D12" s="26" t="s">
         <v>166</v>
       </c>
-      <c r="E12" s="103"/>
+      <c r="E12" s="109"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="98"/>
@@ -8078,7 +9025,7 @@
       <c r="D13" s="26" t="s">
         <v>167</v>
       </c>
-      <c r="E13" s="103"/>
+      <c r="E13" s="109"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="98"/>
@@ -8089,7 +9036,7 @@
       <c r="D14" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="E14" s="103"/>
+      <c r="E14" s="109"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="98"/>
@@ -8100,7 +9047,7 @@
       <c r="D15" s="25" t="s">
         <v>176</v>
       </c>
-      <c r="E15" s="103"/>
+      <c r="E15" s="109"/>
     </row>
     <row r="16" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A16" s="98"/>
@@ -8111,7 +9058,7 @@
       <c r="D16" s="25" t="s">
         <v>182</v>
       </c>
-      <c r="E16" s="103"/>
+      <c r="E16" s="109"/>
     </row>
     <row r="17" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A17" s="98"/>
@@ -8122,7 +9069,7 @@
       <c r="D17" s="25" t="s">
         <v>183</v>
       </c>
-      <c r="E17" s="103"/>
+      <c r="E17" s="109"/>
     </row>
     <row r="18" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="98"/>
@@ -8131,7 +9078,7 @@
         <v>34</v>
       </c>
       <c r="D18" s="25"/>
-      <c r="E18" s="103"/>
+      <c r="E18" s="109"/>
     </row>
     <row r="19" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="98"/>
@@ -8142,7 +9089,7 @@
       <c r="D19" s="25" t="s">
         <v>176</v>
       </c>
-      <c r="E19" s="103"/>
+      <c r="E19" s="109"/>
     </row>
     <row r="20" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="98"/>
@@ -8153,7 +9100,7 @@
       <c r="D20" s="25" t="s">
         <v>177</v>
       </c>
-      <c r="E20" s="103"/>
+      <c r="E20" s="109"/>
     </row>
     <row r="21" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="98"/>
@@ -8164,7 +9111,7 @@
       <c r="D21" s="25" t="s">
         <v>178</v>
       </c>
-      <c r="E21" s="103"/>
+      <c r="E21" s="109"/>
     </row>
     <row r="22" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="98"/>
@@ -8175,7 +9122,7 @@
       <c r="D22" s="25" t="s">
         <v>189</v>
       </c>
-      <c r="E22" s="103"/>
+      <c r="E22" s="109"/>
     </row>
     <row r="23" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="98"/>
@@ -8186,7 +9133,7 @@
       <c r="D23" s="25" t="s">
         <v>188</v>
       </c>
-      <c r="E23" s="103"/>
+      <c r="E23" s="109"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" s="98"/>
@@ -8197,7 +9144,7 @@
       <c r="D24" s="25" t="s">
         <v>102</v>
       </c>
-      <c r="E24" s="103"/>
+      <c r="E24" s="109"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" s="98"/>
@@ -8208,7 +9155,7 @@
       <c r="D25" s="26" t="s">
         <v>179</v>
       </c>
-      <c r="E25" s="103"/>
+      <c r="E25" s="109"/>
     </row>
     <row r="26" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A26" s="98"/>
@@ -8245,10 +9192,10 @@
     </row>
     <row r="29" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A29" s="91"/>
-      <c r="B29" s="104"/>
-      <c r="C29" s="104"/>
-      <c r="D29" s="104"/>
-      <c r="E29" s="105"/>
+      <c r="B29" s="110"/>
+      <c r="C29" s="110"/>
+      <c r="D29" s="110"/>
+      <c r="E29" s="111"/>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" s="97">
@@ -8286,7 +9233,7 @@
         <v>4</v>
       </c>
       <c r="D32" s="26"/>
-      <c r="E32" s="103"/>
+      <c r="E32" s="109"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" s="98"/>
@@ -8297,7 +9244,7 @@
       <c r="D33" s="26" t="s">
         <v>186</v>
       </c>
-      <c r="E33" s="103"/>
+      <c r="E33" s="109"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" s="98"/>
@@ -8308,7 +9255,7 @@
       <c r="D34" s="26" t="s">
         <v>167</v>
       </c>
-      <c r="E34" s="103"/>
+      <c r="E34" s="109"/>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35" s="98"/>
@@ -8319,7 +9266,7 @@
       <c r="D35" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="E35" s="103"/>
+      <c r="E35" s="109"/>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36" s="98"/>
@@ -8330,7 +9277,7 @@
       <c r="D36" s="25" t="s">
         <v>176</v>
       </c>
-      <c r="E36" s="103"/>
+      <c r="E36" s="109"/>
     </row>
     <row r="37" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A37" s="98"/>
@@ -8341,7 +9288,7 @@
       <c r="D37" s="25" t="s">
         <v>182</v>
       </c>
-      <c r="E37" s="103"/>
+      <c r="E37" s="109"/>
     </row>
     <row r="38" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A38" s="98"/>
@@ -8352,7 +9299,7 @@
       <c r="D38" s="25" t="s">
         <v>183</v>
       </c>
-      <c r="E38" s="103"/>
+      <c r="E38" s="109"/>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39" s="98"/>
@@ -8361,7 +9308,7 @@
         <v>34</v>
       </c>
       <c r="D39" s="25"/>
-      <c r="E39" s="103"/>
+      <c r="E39" s="109"/>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40" s="98"/>
@@ -8372,7 +9319,7 @@
       <c r="D40" s="25" t="s">
         <v>176</v>
       </c>
-      <c r="E40" s="103"/>
+      <c r="E40" s="109"/>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A41" s="98"/>
@@ -8383,7 +9330,7 @@
       <c r="D41" s="25" t="s">
         <v>177</v>
       </c>
-      <c r="E41" s="103"/>
+      <c r="E41" s="109"/>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A42" s="98"/>
@@ -8394,7 +9341,7 @@
       <c r="D42" s="25" t="s">
         <v>178</v>
       </c>
-      <c r="E42" s="103"/>
+      <c r="E42" s="109"/>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A43" s="98"/>
@@ -8405,7 +9352,7 @@
       <c r="D43" s="25" t="s">
         <v>187</v>
       </c>
-      <c r="E43" s="103"/>
+      <c r="E43" s="109"/>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A44" s="98"/>
@@ -8416,7 +9363,7 @@
       <c r="D44" s="25" t="s">
         <v>188</v>
       </c>
-      <c r="E44" s="103"/>
+      <c r="E44" s="109"/>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A45" s="98"/>
@@ -8427,7 +9374,7 @@
       <c r="D45" s="25" t="s">
         <v>102</v>
       </c>
-      <c r="E45" s="103"/>
+      <c r="E45" s="109"/>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A46" s="98"/>
@@ -8438,7 +9385,7 @@
       <c r="D46" s="26" t="s">
         <v>179</v>
       </c>
-      <c r="E46" s="103"/>
+      <c r="E46" s="109"/>
     </row>
     <row r="47" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A47" s="98"/>
@@ -8475,13 +9422,18 @@
     </row>
     <row r="50" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A50" s="91"/>
-      <c r="B50" s="104"/>
-      <c r="C50" s="104"/>
-      <c r="D50" s="104"/>
-      <c r="E50" s="105"/>
+      <c r="B50" s="110"/>
+      <c r="C50" s="110"/>
+      <c r="D50" s="110"/>
+      <c r="E50" s="111"/>
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A50:E50"/>
+    <mergeCell ref="A9:A28"/>
+    <mergeCell ref="B9:B28"/>
+    <mergeCell ref="E9:E25"/>
+    <mergeCell ref="A29:E29"/>
     <mergeCell ref="A1:E5"/>
     <mergeCell ref="A6:E6"/>
     <mergeCell ref="A7:E7"/>
@@ -8489,32 +9441,27 @@
     <mergeCell ref="A30:A49"/>
     <mergeCell ref="B30:B49"/>
     <mergeCell ref="E30:E46"/>
-    <mergeCell ref="A50:E50"/>
-    <mergeCell ref="A9:A28"/>
-    <mergeCell ref="B9:B28"/>
-    <mergeCell ref="E9:E25"/>
-    <mergeCell ref="A29:E29"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="E26:E28">
-    <cfRule type="cellIs" dxfId="41" priority="4" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="47" priority="4" stopIfTrue="1" operator="equal">
       <formula>"H"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="40" priority="5" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="46" priority="5" stopIfTrue="1" operator="equal">
       <formula>"M"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="39" priority="6" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="45" priority="6" stopIfTrue="1" operator="equal">
       <formula>"L"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E47:E49">
-    <cfRule type="cellIs" dxfId="38" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="44" priority="1" stopIfTrue="1" operator="equal">
       <formula>"H"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="37" priority="2" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="43" priority="2" stopIfTrue="1" operator="equal">
       <formula>"M"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="36" priority="3" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="42" priority="3" stopIfTrue="1" operator="equal">
       <formula>"L"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8545,7 +9492,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="7" topLeftCell="B32" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
@@ -8592,14 +9539,14 @@
       <c r="E4" s="83"/>
     </row>
     <row r="5" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A5" s="106" t="str">
+      <c r="A5" s="103" t="str">
         <f>PROCESS</f>
         <v>Commercial Bank of Ceylon PLC |Sri Lanka</v>
       </c>
-      <c r="B5" s="107"/>
-      <c r="C5" s="107"/>
-      <c r="D5" s="107"/>
-      <c r="E5" s="108"/>
+      <c r="B5" s="104"/>
+      <c r="C5" s="104"/>
+      <c r="D5" s="104"/>
+      <c r="E5" s="105"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="77" t="s">
@@ -9093,6 +10040,11 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A49:E49"/>
+    <mergeCell ref="A8:A27"/>
+    <mergeCell ref="B8:B27"/>
+    <mergeCell ref="E8:E24"/>
+    <mergeCell ref="A28:E28"/>
     <mergeCell ref="A1:E4"/>
     <mergeCell ref="A5:E5"/>
     <mergeCell ref="A6:E6"/>
@@ -9100,32 +10052,27 @@
     <mergeCell ref="A29:A48"/>
     <mergeCell ref="B29:B48"/>
     <mergeCell ref="E29:E45"/>
-    <mergeCell ref="A49:E49"/>
-    <mergeCell ref="A8:A27"/>
-    <mergeCell ref="B8:B27"/>
-    <mergeCell ref="E8:E24"/>
-    <mergeCell ref="A28:E28"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="E25:E27">
-    <cfRule type="cellIs" dxfId="35" priority="4" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="41" priority="4" stopIfTrue="1" operator="equal">
       <formula>"H"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="34" priority="5" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="40" priority="5" stopIfTrue="1" operator="equal">
       <formula>"M"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="33" priority="6" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="39" priority="6" stopIfTrue="1" operator="equal">
       <formula>"L"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E46:E48">
-    <cfRule type="cellIs" dxfId="32" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="38" priority="1" stopIfTrue="1" operator="equal">
       <formula>"H"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="31" priority="2" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="37" priority="2" stopIfTrue="1" operator="equal">
       <formula>"M"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="30" priority="3" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="36" priority="3" stopIfTrue="1" operator="equal">
       <formula>"L"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9779,24 +10726,24 @@
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="E28:E30">
-    <cfRule type="cellIs" dxfId="29" priority="4" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="35" priority="4" stopIfTrue="1" operator="equal">
       <formula>"H"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="28" priority="5" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="34" priority="5" stopIfTrue="1" operator="equal">
       <formula>"M"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="27" priority="6" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="33" priority="6" stopIfTrue="1" operator="equal">
       <formula>"L"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E52:E54">
-    <cfRule type="cellIs" dxfId="26" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="32" priority="1" stopIfTrue="1" operator="equal">
       <formula>"H"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="25" priority="2" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="31" priority="2" stopIfTrue="1" operator="equal">
       <formula>"M"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="24" priority="3" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="30" priority="3" stopIfTrue="1" operator="equal">
       <formula>"L"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9828,7 +10775,7 @@
       <pane xSplit="1" ySplit="8" topLeftCell="B9" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
-      <selection pane="bottomRight" activeCell="B9" sqref="B9:B22"/>
+      <selection pane="bottomRight" activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -9878,14 +10825,14 @@
       <c r="E5" s="84"/>
     </row>
     <row r="6" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A6" s="106" t="str">
+      <c r="A6" s="103" t="str">
         <f>PROCESS</f>
         <v>Commercial Bank of Ceylon PLC |Sri Lanka</v>
       </c>
-      <c r="B6" s="107"/>
-      <c r="C6" s="107"/>
-      <c r="D6" s="107"/>
-      <c r="E6" s="108"/>
+      <c r="B6" s="104"/>
+      <c r="C6" s="104"/>
+      <c r="D6" s="104"/>
+      <c r="E6" s="105"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="77" t="s">
@@ -9915,14 +10862,18 @@
       <c r="A9" s="97">
         <v>1</v>
       </c>
-      <c r="B9" s="100"/>
+      <c r="B9" s="100" t="s">
+        <v>284</v>
+      </c>
       <c r="C9" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="D9" s="26"/>
+      <c r="D9" s="26" t="s">
+        <v>285</v>
+      </c>
       <c r="E9" s="94">
         <f>COUNTIF($E20:$E22,"H")*3+COUNTIF($E20:$E22,"M")*2+COUNTIF($E20:$E22,"L")*1</f>
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
@@ -9931,7 +10882,9 @@
       <c r="C10" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D10" s="25"/>
+      <c r="D10" s="25" t="s">
+        <v>165</v>
+      </c>
       <c r="E10" s="95"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
@@ -9949,7 +10902,9 @@
       <c r="C12" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D12" s="26"/>
+      <c r="D12" s="26" t="s">
+        <v>239</v>
+      </c>
       <c r="E12" s="96"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
@@ -9958,7 +10913,9 @@
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D13" s="25"/>
+      <c r="D13" s="25" t="s">
+        <v>167</v>
+      </c>
       <c r="E13" s="96"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
@@ -9967,7 +10924,9 @@
       <c r="C14" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D14" s="26"/>
+      <c r="D14" s="26" t="s">
+        <v>188</v>
+      </c>
       <c r="E14" s="96"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
@@ -9976,7 +10935,9 @@
       <c r="C15" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D15" s="26"/>
+      <c r="D15" s="26" t="s">
+        <v>25</v>
+      </c>
       <c r="E15" s="96"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
@@ -9985,7 +10946,9 @@
       <c r="C16" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="D16" s="25"/>
+      <c r="D16" s="25" t="s">
+        <v>286</v>
+      </c>
       <c r="E16" s="96"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
@@ -9994,7 +10957,9 @@
       <c r="C17" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="D17" s="25"/>
+      <c r="D17" s="25" t="s">
+        <v>287</v>
+      </c>
       <c r="E17" s="96"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
@@ -10003,7 +10968,9 @@
       <c r="C18" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D18" s="25"/>
+      <c r="D18" s="25" t="s">
+        <v>188</v>
+      </c>
       <c r="E18" s="96"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
@@ -10012,7 +10979,9 @@
       <c r="C19" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D19" s="26"/>
+      <c r="D19" s="25" t="s">
+        <v>188</v>
+      </c>
       <c r="E19" s="96"/>
     </row>
     <row r="20" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -10021,7 +10990,9 @@
       <c r="C20" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="26"/>
+      <c r="D20" s="26" t="s">
+        <v>62</v>
+      </c>
       <c r="E20" s="5" t="s">
         <v>8</v>
       </c>
@@ -10032,7 +11003,9 @@
       <c r="C21" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="D21" s="26"/>
+      <c r="D21" s="26" t="s">
+        <v>62</v>
+      </c>
       <c r="E21" s="5" t="s">
         <v>8</v>
       </c>
@@ -10043,10 +11016,10 @@
       <c r="C22" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="D22" s="26"/>
-      <c r="E22" s="5" t="s">
-        <v>8</v>
-      </c>
+      <c r="D22" s="26" t="s">
+        <v>64</v>
+      </c>
+      <c r="E22" s="5"/>
     </row>
     <row r="23" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A23" s="91"/>
@@ -10078,13 +11051,13 @@
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="E20:E22">
-    <cfRule type="cellIs" dxfId="23" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="29" priority="1" stopIfTrue="1" operator="equal">
       <formula>"H"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="22" priority="2" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="28" priority="2" stopIfTrue="1" operator="equal">
       <formula>"M"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="21" priority="3" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="27" priority="3" stopIfTrue="1" operator="equal">
       <formula>"L"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10112,11 +11085,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="7" topLeftCell="B8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
-      <selection pane="bottomRight" activeCell="B8" sqref="B8:B17"/>
+      <selection pane="bottomRight" activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -10204,14 +11177,18 @@
       <c r="A8" s="129">
         <v>1</v>
       </c>
-      <c r="B8" s="134"/>
+      <c r="B8" s="134" t="s">
+        <v>166</v>
+      </c>
       <c r="C8" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="D8" s="29"/>
+      <c r="D8" s="29" t="s">
+        <v>288</v>
+      </c>
       <c r="E8" s="132">
         <f>COUNTIF($E15:$E17,"H")*3+COUNTIF($E15:$E17,"M")*2+COUNTIF($E15:$E17,"L")*1</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F8"/>
     </row>
@@ -10221,7 +11198,9 @@
       <c r="C9" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="D9" s="29"/>
+      <c r="D9" s="29" t="s">
+        <v>289</v>
+      </c>
       <c r="E9" s="96"/>
     </row>
     <row r="10" spans="1:6" ht="23.25" x14ac:dyDescent="0.2">
@@ -10230,7 +11209,9 @@
       <c r="C10" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="D10" s="29"/>
+      <c r="D10" s="29" t="s">
+        <v>106</v>
+      </c>
       <c r="E10" s="96"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
@@ -10239,7 +11220,9 @@
       <c r="C11" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="D11" s="29"/>
+      <c r="D11" s="29" t="s">
+        <v>188</v>
+      </c>
       <c r="E11" s="96"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
@@ -10248,7 +11231,9 @@
       <c r="C12" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="D12" s="29"/>
+      <c r="D12" s="29" t="s">
+        <v>107</v>
+      </c>
       <c r="E12" s="96"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
@@ -10257,7 +11242,9 @@
       <c r="C13" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="D13" s="29"/>
+      <c r="D13" s="29" t="s">
+        <v>107</v>
+      </c>
       <c r="E13" s="96"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
@@ -10266,7 +11253,9 @@
       <c r="C14" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="D14" s="29"/>
+      <c r="D14" s="29" t="s">
+        <v>290</v>
+      </c>
       <c r="E14" s="133"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
@@ -10275,10 +11264,10 @@
       <c r="C15" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="D15" s="29"/>
-      <c r="E15" s="5" t="s">
-        <v>8</v>
-      </c>
+      <c r="D15" s="29" t="s">
+        <v>64</v>
+      </c>
+      <c r="E15" s="5"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" s="130"/>
@@ -10286,10 +11275,10 @@
       <c r="C16" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="D16" s="29"/>
-      <c r="E16" s="5" t="s">
-        <v>8</v>
-      </c>
+      <c r="D16" s="29" t="s">
+        <v>64</v>
+      </c>
+      <c r="E16" s="5"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="131"/>
@@ -10297,10 +11286,10 @@
       <c r="C17" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="D17" s="29"/>
-      <c r="E17" s="5" t="s">
-        <v>8</v>
-      </c>
+      <c r="D17" s="29" t="s">
+        <v>64</v>
+      </c>
+      <c r="E17" s="5"/>
     </row>
     <row r="18" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A18" s="115"/>
@@ -10322,17 +11311,17 @@
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="E15:E17">
-    <cfRule type="cellIs" dxfId="20" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="26" priority="1" stopIfTrue="1" operator="equal">
       <formula>"H"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="19" priority="2" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="2" stopIfTrue="1" operator="equal">
       <formula>"M"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="18" priority="3" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="3" stopIfTrue="1" operator="equal">
       <formula>"L"</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations disablePrompts="1" count="1">
+  <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E15:E17">
       <formula1>lmh</formula1>
     </dataValidation>
@@ -10353,10 +11342,10 @@
   <dimension ref="A1:E95"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="7" topLeftCell="B8" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="7" topLeftCell="B14" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
-      <selection pane="bottomRight" activeCell="B8" sqref="B8:B40"/>
+      <selection pane="bottomRight" activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -10413,9 +11402,9 @@
         <v>147</v>
       </c>
       <c r="B6" s="78"/>
-      <c r="C6" s="109"/>
-      <c r="D6" s="109"/>
-      <c r="E6" s="110"/>
+      <c r="C6" s="106"/>
+      <c r="D6" s="106"/>
+      <c r="E6" s="107"/>
     </row>
     <row r="7" spans="1:5" ht="32.25" x14ac:dyDescent="0.2">
       <c r="A7" s="19" t="s">
@@ -10433,15 +11422,21 @@
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="139"/>
-      <c r="B8" s="139"/>
+      <c r="A8" s="139">
+        <v>1</v>
+      </c>
+      <c r="B8" s="147" t="s">
+        <v>216</v>
+      </c>
       <c r="C8" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="D8" s="45"/>
+      <c r="D8" s="45" t="s">
+        <v>165</v>
+      </c>
       <c r="E8" s="112">
         <f>COUNTIF($E38:$E40,"H")*3+COUNTIF($E38:$E40,"M")*2+COUNTIF($E38:$E40,"L")*1</f>
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
@@ -10459,7 +11454,9 @@
       <c r="C10" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="D10" s="45"/>
+      <c r="D10" s="45" t="s">
+        <v>166</v>
+      </c>
       <c r="E10" s="113"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
@@ -10477,7 +11474,9 @@
       <c r="C12" s="36" t="s">
         <v>12</v>
       </c>
-      <c r="D12" s="45"/>
+      <c r="D12" s="45" t="s">
+        <v>204</v>
+      </c>
       <c r="E12" s="113"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
@@ -10486,7 +11485,9 @@
       <c r="C13" s="36" t="s">
         <v>112</v>
       </c>
-      <c r="D13" s="45"/>
+      <c r="D13" s="45" t="s">
+        <v>217</v>
+      </c>
       <c r="E13" s="113"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
@@ -10495,7 +11496,9 @@
       <c r="C14" s="36" t="s">
         <v>31</v>
       </c>
-      <c r="D14" s="45"/>
+      <c r="D14" s="45" t="s">
+        <v>218</v>
+      </c>
       <c r="E14" s="113"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
@@ -10504,7 +11507,9 @@
       <c r="C15" s="36" t="s">
         <v>32</v>
       </c>
-      <c r="D15" s="45"/>
+      <c r="D15" s="45">
+        <v>3</v>
+      </c>
       <c r="E15" s="113"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
@@ -10513,7 +11518,9 @@
       <c r="C16" s="36" t="s">
         <v>33</v>
       </c>
-      <c r="D16" s="45"/>
+      <c r="D16" s="45">
+        <v>2</v>
+      </c>
       <c r="E16" s="113"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
@@ -10522,7 +11529,9 @@
       <c r="C17" s="36" t="s">
         <v>51</v>
       </c>
-      <c r="D17" s="45"/>
+      <c r="D17" s="45" t="s">
+        <v>219</v>
+      </c>
       <c r="E17" s="113"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
@@ -10531,7 +11540,9 @@
       <c r="C18" s="36" t="s">
         <v>52</v>
       </c>
-      <c r="D18" s="45"/>
+      <c r="D18" s="45" t="s">
+        <v>220</v>
+      </c>
       <c r="E18" s="113"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
@@ -10540,7 +11551,9 @@
       <c r="C19" s="36" t="s">
         <v>114</v>
       </c>
-      <c r="D19" s="45"/>
+      <c r="D19" s="45">
+        <v>4</v>
+      </c>
       <c r="E19" s="113"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
@@ -10567,7 +11580,9 @@
       <c r="C22" s="37" t="s">
         <v>116</v>
       </c>
-      <c r="D22" s="45"/>
+      <c r="D22" s="45" t="s">
+        <v>221</v>
+      </c>
       <c r="E22" s="113"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
@@ -10576,7 +11591,9 @@
       <c r="C23" s="36" t="s">
         <v>34</v>
       </c>
-      <c r="D23" s="45"/>
+      <c r="D23" s="45" t="s">
+        <v>222</v>
+      </c>
       <c r="E23" s="113"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
@@ -10585,7 +11602,9 @@
       <c r="C24" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="D24" s="45"/>
+      <c r="D24" s="45" t="s">
+        <v>177</v>
+      </c>
       <c r="E24" s="113"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
@@ -10594,7 +11613,9 @@
       <c r="C25" s="36" t="s">
         <v>41</v>
       </c>
-      <c r="D25" s="45"/>
+      <c r="D25" s="45" t="s">
+        <v>177</v>
+      </c>
       <c r="E25" s="113"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
@@ -10603,7 +11624,9 @@
       <c r="C26" s="36" t="s">
         <v>42</v>
       </c>
-      <c r="D26" s="45"/>
+      <c r="D26" s="45" t="s">
+        <v>223</v>
+      </c>
       <c r="E26" s="113"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
@@ -10612,7 +11635,9 @@
       <c r="C27" s="36" t="s">
         <v>123</v>
       </c>
-      <c r="D27" s="45"/>
+      <c r="D27" s="45" t="s">
+        <v>106</v>
+      </c>
       <c r="E27" s="113"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
@@ -10621,7 +11646,9 @@
       <c r="C28" s="36" t="s">
         <v>124</v>
       </c>
-      <c r="D28" s="45"/>
+      <c r="D28" s="45" t="s">
+        <v>106</v>
+      </c>
       <c r="E28" s="113"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
@@ -10630,7 +11657,9 @@
       <c r="C29" s="36" t="s">
         <v>35</v>
       </c>
-      <c r="D29" s="45"/>
+      <c r="D29" s="45" t="s">
+        <v>226</v>
+      </c>
       <c r="E29" s="113"/>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
@@ -10639,7 +11668,9 @@
       <c r="C30" s="37" t="s">
         <v>36</v>
       </c>
-      <c r="D30" s="45"/>
+      <c r="D30" s="148" t="s">
+        <v>227</v>
+      </c>
       <c r="E30" s="113"/>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
@@ -10648,7 +11679,9 @@
       <c r="C31" s="36" t="s">
         <v>37</v>
       </c>
-      <c r="D31" s="45"/>
+      <c r="D31" s="45" t="s">
+        <v>224</v>
+      </c>
       <c r="E31" s="113"/>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.2">
@@ -10657,7 +11690,9 @@
       <c r="C32" s="36" t="s">
         <v>38</v>
       </c>
-      <c r="D32" s="45"/>
+      <c r="D32" s="45" t="s">
+        <v>225</v>
+      </c>
       <c r="E32" s="113"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
@@ -10666,7 +11701,9 @@
       <c r="C33" s="36" t="s">
         <v>53</v>
       </c>
-      <c r="D33" s="45"/>
+      <c r="D33" s="45" t="s">
+        <v>6</v>
+      </c>
       <c r="E33" s="113"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
@@ -10675,7 +11712,9 @@
       <c r="C34" s="46" t="s">
         <v>57</v>
       </c>
-      <c r="D34" s="45"/>
+      <c r="D34" s="45" t="s">
+        <v>188</v>
+      </c>
       <c r="E34" s="113"/>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.2">
@@ -10684,7 +11723,9 @@
       <c r="C35" s="36" t="s">
         <v>58</v>
       </c>
-      <c r="D35" s="45"/>
+      <c r="D35" s="45" t="s">
+        <v>188</v>
+      </c>
       <c r="E35" s="113"/>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.2">
@@ -10693,7 +11734,9 @@
       <c r="C36" s="36" t="s">
         <v>39</v>
       </c>
-      <c r="D36" s="45"/>
+      <c r="D36" s="45" t="s">
+        <v>106</v>
+      </c>
       <c r="E36" s="113"/>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.2">
@@ -10702,7 +11745,9 @@
       <c r="C37" s="36" t="s">
         <v>101</v>
       </c>
-      <c r="D37" s="45"/>
+      <c r="D37" s="45" t="s">
+        <v>102</v>
+      </c>
       <c r="E37" s="114"/>
     </row>
     <row r="38" spans="1:5" ht="23.25" x14ac:dyDescent="0.2">
@@ -10711,10 +11756,10 @@
       <c r="C38" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="D38" s="27"/>
-      <c r="E38" s="5" t="s">
-        <v>8</v>
-      </c>
+      <c r="D38" s="27" t="s">
+        <v>64</v>
+      </c>
+      <c r="E38" s="5"/>
     </row>
     <row r="39" spans="1:5" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A39" s="140"/>
@@ -10722,10 +11767,10 @@
       <c r="C39" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="D39" s="27"/>
-      <c r="E39" s="5" t="s">
-        <v>8</v>
-      </c>
+      <c r="D39" s="27" t="s">
+        <v>64</v>
+      </c>
+      <c r="E39" s="5"/>
     </row>
     <row r="40" spans="1:5" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A40" s="140"/>
@@ -10733,10 +11778,10 @@
       <c r="C40" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="D40" s="27"/>
-      <c r="E40" s="5" t="s">
-        <v>8</v>
-      </c>
+      <c r="D40" s="27" t="s">
+        <v>64</v>
+      </c>
+      <c r="E40" s="5"/>
     </row>
     <row r="41" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A41" s="115"/>
@@ -10924,17 +11969,17 @@
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="E38:E40">
-    <cfRule type="cellIs" dxfId="17" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="1" stopIfTrue="1" operator="equal">
       <formula>"H"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="2" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="2" stopIfTrue="1" operator="equal">
       <formula>"M"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="15" priority="3" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="3" stopIfTrue="1" operator="equal">
       <formula>"L"</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations disablePrompts="1" count="2">
+  <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E38:E40">
       <formula1>lmh</formula1>
     </dataValidation>
@@ -10959,13 +12004,13 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E41"/>
+  <dimension ref="A1:E75"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="7" topLeftCell="B8" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="7" topLeftCell="B62" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
-      <selection pane="bottomRight" activeCell="B8" sqref="B8:B40"/>
+      <selection pane="bottomRight" activeCell="D73" sqref="D73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -11042,15 +12087,21 @@
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="141"/>
-      <c r="B8" s="141"/>
+      <c r="A8" s="141">
+        <v>1</v>
+      </c>
+      <c r="B8" s="141" t="s">
+        <v>228</v>
+      </c>
       <c r="C8" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="D8" s="45"/>
+      <c r="D8" s="45" t="s">
+        <v>165</v>
+      </c>
       <c r="E8" s="112">
         <f>COUNTIF($E38:$E40,"H")*3+COUNTIF($E38:$E40,"M")*2+COUNTIF($E38:$E40,"L")*1</f>
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
@@ -11068,7 +12119,9 @@
       <c r="C10" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="D10" s="45"/>
+      <c r="D10" s="45" t="s">
+        <v>166</v>
+      </c>
       <c r="E10" s="113"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
@@ -11077,7 +12130,9 @@
       <c r="C11" s="21" t="s">
         <v>46</v>
       </c>
-      <c r="D11" s="45"/>
+      <c r="D11" s="45" t="s">
+        <v>229</v>
+      </c>
       <c r="E11" s="113"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
@@ -11086,7 +12141,9 @@
       <c r="C12" s="36" t="s">
         <v>12</v>
       </c>
-      <c r="D12" s="45"/>
+      <c r="D12" s="45" t="s">
+        <v>230</v>
+      </c>
       <c r="E12" s="113"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
@@ -11095,7 +12152,9 @@
       <c r="C13" s="36" t="s">
         <v>112</v>
       </c>
-      <c r="D13" s="45"/>
+      <c r="D13" s="45" t="s">
+        <v>231</v>
+      </c>
       <c r="E13" s="113"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
@@ -11104,7 +12163,9 @@
       <c r="C14" s="36" t="s">
         <v>31</v>
       </c>
-      <c r="D14" s="45"/>
+      <c r="D14" s="45" t="s">
+        <v>232</v>
+      </c>
       <c r="E14" s="113"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
@@ -11113,7 +12174,9 @@
       <c r="C15" s="49" t="s">
         <v>127</v>
       </c>
-      <c r="D15" s="45"/>
+      <c r="D15" s="45">
+        <v>55015</v>
+      </c>
       <c r="E15" s="113"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
@@ -11122,7 +12185,9 @@
       <c r="C16" s="30" t="s">
         <v>54</v>
       </c>
-      <c r="D16" s="45"/>
+      <c r="D16" s="45" t="s">
+        <v>219</v>
+      </c>
       <c r="E16" s="113"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
@@ -11140,7 +12205,9 @@
       <c r="C18" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="D18" s="45"/>
+      <c r="D18" s="45" t="s">
+        <v>171</v>
+      </c>
       <c r="E18" s="113"/>
     </row>
     <row r="19" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
@@ -11149,7 +12216,9 @@
       <c r="C19" s="37" t="s">
         <v>115</v>
       </c>
-      <c r="D19" s="45"/>
+      <c r="D19" s="45" t="s">
+        <v>233</v>
+      </c>
       <c r="E19" s="113"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
@@ -11158,7 +12227,9 @@
       <c r="C20" s="30" t="s">
         <v>117</v>
       </c>
-      <c r="D20" s="45"/>
+      <c r="D20" s="45" t="s">
+        <v>206</v>
+      </c>
       <c r="E20" s="113"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
@@ -11167,7 +12238,9 @@
       <c r="C21" s="36" t="s">
         <v>34</v>
       </c>
-      <c r="D21" s="45"/>
+      <c r="D21" s="45" t="s">
+        <v>222</v>
+      </c>
       <c r="E21" s="113"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
@@ -11176,7 +12249,9 @@
       <c r="C22" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="D22" s="45"/>
+      <c r="D22" s="45" t="s">
+        <v>177</v>
+      </c>
       <c r="E22" s="113"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
@@ -11185,7 +12260,9 @@
       <c r="C23" s="36" t="s">
         <v>41</v>
       </c>
-      <c r="D23" s="45"/>
+      <c r="D23" s="45" t="s">
+        <v>177</v>
+      </c>
       <c r="E23" s="113"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
@@ -11194,7 +12271,9 @@
       <c r="C24" s="36" t="s">
         <v>42</v>
       </c>
-      <c r="D24" s="45"/>
+      <c r="D24" s="45" t="s">
+        <v>223</v>
+      </c>
       <c r="E24" s="113"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
@@ -11203,7 +12282,9 @@
       <c r="C25" s="36" t="s">
         <v>125</v>
       </c>
-      <c r="D25" s="45"/>
+      <c r="D25" s="45" t="s">
+        <v>106</v>
+      </c>
       <c r="E25" s="113"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
@@ -11212,7 +12293,9 @@
       <c r="C26" s="36" t="s">
         <v>124</v>
       </c>
-      <c r="D26" s="45"/>
+      <c r="D26" s="45" t="s">
+        <v>106</v>
+      </c>
       <c r="E26" s="113"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
@@ -11221,7 +12304,9 @@
       <c r="C27" s="36" t="s">
         <v>35</v>
       </c>
-      <c r="D27" s="45"/>
+      <c r="D27" s="45" t="s">
+        <v>234</v>
+      </c>
       <c r="E27" s="113"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
@@ -11239,7 +12324,9 @@
       <c r="C29" s="36" t="s">
         <v>37</v>
       </c>
-      <c r="D29" s="45"/>
+      <c r="D29" s="45" t="s">
+        <v>235</v>
+      </c>
       <c r="E29" s="113"/>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
@@ -11248,7 +12335,9 @@
       <c r="C30" s="36" t="s">
         <v>38</v>
       </c>
-      <c r="D30" s="45"/>
+      <c r="D30" s="45" t="s">
+        <v>168</v>
+      </c>
       <c r="E30" s="113"/>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
@@ -11257,7 +12346,9 @@
       <c r="C31" s="36" t="s">
         <v>53</v>
       </c>
-      <c r="D31" s="45"/>
+      <c r="D31" s="45" t="s">
+        <v>236</v>
+      </c>
       <c r="E31" s="113"/>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.2">
@@ -11266,7 +12357,9 @@
       <c r="C32" s="38" t="s">
         <v>56</v>
       </c>
-      <c r="D32" s="45"/>
+      <c r="D32" s="45" t="s">
+        <v>237</v>
+      </c>
       <c r="E32" s="113"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
@@ -11275,7 +12368,9 @@
       <c r="C33" s="38" t="s">
         <v>105</v>
       </c>
-      <c r="D33" s="45"/>
+      <c r="D33" s="45" t="s">
+        <v>107</v>
+      </c>
       <c r="E33" s="113"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
@@ -11284,7 +12379,9 @@
       <c r="C34" s="38" t="s">
         <v>101</v>
       </c>
-      <c r="D34" s="45"/>
+      <c r="D34" s="45" t="s">
+        <v>102</v>
+      </c>
       <c r="E34" s="113"/>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.2">
@@ -11293,7 +12390,9 @@
       <c r="C35" s="38" t="s">
         <v>27</v>
       </c>
-      <c r="D35" s="45"/>
+      <c r="D35" s="45" t="s">
+        <v>171</v>
+      </c>
       <c r="E35" s="113"/>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.2">
@@ -11302,7 +12401,9 @@
       <c r="C36" s="38" t="s">
         <v>57</v>
       </c>
-      <c r="D36" s="45"/>
+      <c r="D36" s="45" t="s">
+        <v>188</v>
+      </c>
       <c r="E36" s="113"/>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.2">
@@ -11311,7 +12412,9 @@
       <c r="C37" s="36" t="s">
         <v>58</v>
       </c>
-      <c r="D37" s="45"/>
+      <c r="D37" s="45" t="s">
+        <v>188</v>
+      </c>
       <c r="E37" s="113"/>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.2">
@@ -11320,10 +12423,10 @@
       <c r="C38" s="14" t="s">
         <v>126</v>
       </c>
-      <c r="D38" s="29"/>
-      <c r="E38" s="5" t="s">
-        <v>8</v>
-      </c>
+      <c r="D38" s="29" t="s">
+        <v>64</v>
+      </c>
+      <c r="E38" s="5"/>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39" s="142"/>
@@ -11331,10 +12434,10 @@
       <c r="C39" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="D39" s="29"/>
-      <c r="E39" s="5" t="s">
-        <v>8</v>
-      </c>
+      <c r="D39" s="29" t="s">
+        <v>64</v>
+      </c>
+      <c r="E39" s="5"/>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40" s="143"/>
@@ -11342,10 +12445,10 @@
       <c r="C40" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="D40" s="29"/>
-      <c r="E40" s="5" t="s">
-        <v>8</v>
-      </c>
+      <c r="D40" s="29" t="s">
+        <v>64</v>
+      </c>
+      <c r="E40" s="5"/>
     </row>
     <row r="41" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A41" s="115"/>
@@ -11354,8 +12457,385 @@
       <c r="D41" s="138"/>
       <c r="E41" s="138"/>
     </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A42" s="141">
+        <v>2</v>
+      </c>
+      <c r="B42" s="141" t="s">
+        <v>238</v>
+      </c>
+      <c r="C42" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="D42" s="45" t="s">
+        <v>165</v>
+      </c>
+      <c r="E42" s="112">
+        <f>COUNTIF($E72:$E74,"H")*3+COUNTIF($E72:$E74,"M")*2+COUNTIF($E72:$E74,"L")*1</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A43" s="142"/>
+      <c r="B43" s="142"/>
+      <c r="C43" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="D43" s="45"/>
+      <c r="E43" s="113"/>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A44" s="142"/>
+      <c r="B44" s="142"/>
+      <c r="C44" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="D44" s="45" t="s">
+        <v>239</v>
+      </c>
+      <c r="E44" s="113"/>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A45" s="142"/>
+      <c r="B45" s="142"/>
+      <c r="C45" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="D45" s="45" t="s">
+        <v>229</v>
+      </c>
+      <c r="E45" s="113"/>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A46" s="142"/>
+      <c r="B46" s="142"/>
+      <c r="C46" s="36" t="s">
+        <v>12</v>
+      </c>
+      <c r="D46" s="45" t="s">
+        <v>240</v>
+      </c>
+      <c r="E46" s="113"/>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A47" s="142"/>
+      <c r="B47" s="142"/>
+      <c r="C47" s="36" t="s">
+        <v>112</v>
+      </c>
+      <c r="D47" s="45" t="s">
+        <v>241</v>
+      </c>
+      <c r="E47" s="113"/>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A48" s="142"/>
+      <c r="B48" s="142"/>
+      <c r="C48" s="36" t="s">
+        <v>31</v>
+      </c>
+      <c r="D48" s="45" t="s">
+        <v>242</v>
+      </c>
+      <c r="E48" s="113"/>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A49" s="142"/>
+      <c r="B49" s="142"/>
+      <c r="C49" s="49" t="s">
+        <v>127</v>
+      </c>
+      <c r="D49" s="45">
+        <v>55015</v>
+      </c>
+      <c r="E49" s="113"/>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A50" s="142"/>
+      <c r="B50" s="142"/>
+      <c r="C50" s="30" t="s">
+        <v>54</v>
+      </c>
+      <c r="D50" s="45" t="s">
+        <v>219</v>
+      </c>
+      <c r="E50" s="113"/>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A51" s="142"/>
+      <c r="B51" s="142"/>
+      <c r="C51" s="30" t="s">
+        <v>55</v>
+      </c>
+      <c r="D51" s="45"/>
+      <c r="E51" s="113"/>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A52" s="142"/>
+      <c r="B52" s="142"/>
+      <c r="C52" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="D52" s="45" t="s">
+        <v>171</v>
+      </c>
+      <c r="E52" s="113"/>
+    </row>
+    <row r="53" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A53" s="142"/>
+      <c r="B53" s="142"/>
+      <c r="C53" s="37" t="s">
+        <v>115</v>
+      </c>
+      <c r="D53" s="45" t="s">
+        <v>233</v>
+      </c>
+      <c r="E53" s="113"/>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A54" s="142"/>
+      <c r="B54" s="142"/>
+      <c r="C54" s="30" t="s">
+        <v>117</v>
+      </c>
+      <c r="D54" s="45" t="s">
+        <v>206</v>
+      </c>
+      <c r="E54" s="113"/>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A55" s="142"/>
+      <c r="B55" s="142"/>
+      <c r="C55" s="36" t="s">
+        <v>34</v>
+      </c>
+      <c r="D55" s="45" t="s">
+        <v>222</v>
+      </c>
+      <c r="E55" s="113"/>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A56" s="142"/>
+      <c r="B56" s="142"/>
+      <c r="C56" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="D56" s="45" t="s">
+        <v>177</v>
+      </c>
+      <c r="E56" s="113"/>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A57" s="142"/>
+      <c r="B57" s="142"/>
+      <c r="C57" s="36" t="s">
+        <v>41</v>
+      </c>
+      <c r="D57" s="45" t="s">
+        <v>177</v>
+      </c>
+      <c r="E57" s="113"/>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A58" s="142"/>
+      <c r="B58" s="142"/>
+      <c r="C58" s="36" t="s">
+        <v>42</v>
+      </c>
+      <c r="D58" s="45" t="s">
+        <v>223</v>
+      </c>
+      <c r="E58" s="113"/>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A59" s="142"/>
+      <c r="B59" s="142"/>
+      <c r="C59" s="36" t="s">
+        <v>125</v>
+      </c>
+      <c r="D59" s="45" t="s">
+        <v>106</v>
+      </c>
+      <c r="E59" s="113"/>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A60" s="142"/>
+      <c r="B60" s="142"/>
+      <c r="C60" s="36" t="s">
+        <v>124</v>
+      </c>
+      <c r="D60" s="45" t="s">
+        <v>106</v>
+      </c>
+      <c r="E60" s="113"/>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A61" s="142"/>
+      <c r="B61" s="142"/>
+      <c r="C61" s="36" t="s">
+        <v>35</v>
+      </c>
+      <c r="D61" s="45" t="s">
+        <v>234</v>
+      </c>
+      <c r="E61" s="113"/>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A62" s="142"/>
+      <c r="B62" s="142"/>
+      <c r="C62" s="37" t="s">
+        <v>36</v>
+      </c>
+      <c r="D62" s="45"/>
+      <c r="E62" s="113"/>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A63" s="142"/>
+      <c r="B63" s="142"/>
+      <c r="C63" s="36" t="s">
+        <v>37</v>
+      </c>
+      <c r="D63" s="45" t="s">
+        <v>235</v>
+      </c>
+      <c r="E63" s="113"/>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A64" s="142"/>
+      <c r="B64" s="142"/>
+      <c r="C64" s="36" t="s">
+        <v>38</v>
+      </c>
+      <c r="D64" s="45" t="s">
+        <v>168</v>
+      </c>
+      <c r="E64" s="113"/>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A65" s="142"/>
+      <c r="B65" s="142"/>
+      <c r="C65" s="36" t="s">
+        <v>53</v>
+      </c>
+      <c r="D65" s="45" t="s">
+        <v>236</v>
+      </c>
+      <c r="E65" s="113"/>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A66" s="142"/>
+      <c r="B66" s="142"/>
+      <c r="C66" s="38" t="s">
+        <v>56</v>
+      </c>
+      <c r="D66" s="45" t="s">
+        <v>237</v>
+      </c>
+      <c r="E66" s="113"/>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A67" s="142"/>
+      <c r="B67" s="142"/>
+      <c r="C67" s="38" t="s">
+        <v>105</v>
+      </c>
+      <c r="D67" s="45" t="s">
+        <v>107</v>
+      </c>
+      <c r="E67" s="113"/>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A68" s="142"/>
+      <c r="B68" s="142"/>
+      <c r="C68" s="38" t="s">
+        <v>101</v>
+      </c>
+      <c r="D68" s="45" t="s">
+        <v>104</v>
+      </c>
+      <c r="E68" s="113"/>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A69" s="142"/>
+      <c r="B69" s="142"/>
+      <c r="C69" s="38" t="s">
+        <v>27</v>
+      </c>
+      <c r="D69" s="45" t="s">
+        <v>171</v>
+      </c>
+      <c r="E69" s="113"/>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A70" s="142"/>
+      <c r="B70" s="142"/>
+      <c r="C70" s="38" t="s">
+        <v>57</v>
+      </c>
+      <c r="D70" s="45" t="s">
+        <v>188</v>
+      </c>
+      <c r="E70" s="113"/>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A71" s="142"/>
+      <c r="B71" s="142"/>
+      <c r="C71" s="36" t="s">
+        <v>58</v>
+      </c>
+      <c r="D71" s="45" t="s">
+        <v>188</v>
+      </c>
+      <c r="E71" s="113"/>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A72" s="142"/>
+      <c r="B72" s="142"/>
+      <c r="C72" s="14" t="s">
+        <v>126</v>
+      </c>
+      <c r="D72" s="29" t="s">
+        <v>62</v>
+      </c>
+      <c r="E72" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A73" s="142"/>
+      <c r="B73" s="142"/>
+      <c r="C73" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="D73" s="29" t="s">
+        <v>63</v>
+      </c>
+      <c r="E73" s="5"/>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A74" s="143"/>
+      <c r="B74" s="143"/>
+      <c r="C74" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="D74" s="29" t="s">
+        <v>64</v>
+      </c>
+      <c r="E74" s="5"/>
+    </row>
+    <row r="75" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="115"/>
+      <c r="B75" s="138"/>
+      <c r="C75" s="138"/>
+      <c r="D75" s="138"/>
+      <c r="E75" s="138"/>
+    </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="12">
+    <mergeCell ref="A42:A74"/>
+    <mergeCell ref="B42:B74"/>
+    <mergeCell ref="E42:E71"/>
+    <mergeCell ref="A75:E75"/>
     <mergeCell ref="B8:B40"/>
     <mergeCell ref="A8:A40"/>
     <mergeCell ref="E8:E37"/>
@@ -11367,24 +12847,35 @@
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="E38:E40">
-    <cfRule type="cellIs" dxfId="14" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="4" stopIfTrue="1" operator="equal">
       <formula>"H"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="13" priority="2" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="5" stopIfTrue="1" operator="equal">
       <formula>"M"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="3" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="6" stopIfTrue="1" operator="equal">
       <formula>"L"</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations disablePrompts="1" count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E38:E40">
+  <conditionalFormatting sqref="E72:E74">
+    <cfRule type="cellIs" dxfId="5" priority="1" stopIfTrue="1" operator="equal">
+      <formula>"H"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="2" stopIfTrue="1" operator="equal">
+      <formula>"M"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="3" priority="3" stopIfTrue="1" operator="equal">
+      <formula>"L"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations count="3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E38:E40 E72:E74">
       <formula1>lmh</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D33">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D33 D67">
       <formula1>Yesno</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D34">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D34 D68">
       <formula1>Backup</formula1>
     </dataValidation>
   </dataValidations>
